--- a/Data/Validation data/UFA_stock_validation.xlsx
+++ b/Data/Validation data/UFA_stock_validation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/954e9104582efe7e/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/954e9104582efe7e/Documents/Python/TEP4290_project/data/Validation data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{885D3E76-E05E-44F2-8779-198595E66066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
